--- a/biology/Zoologie/Eoactinistia/Eoactinistia.xlsx
+++ b/biology/Zoologie/Eoactinistia/Eoactinistia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eoactinistia foreyi
 Le genre Eoactinistia et sa seule espèce Eoactinistia foreyi sont des taxons primitifs éteints  de poissons à membres charnus.
-Cette espèce dispute avec Euporosteus yunnanensis le titre de plus ancien cœlacanthe connu[1],[2]. Elle est datée du Dévonien inférieur (Praguien supérieur), soit environ entre −407 et −409 Ma (millions d'années).
+Cette espèce dispute avec Euporosteus yunnanensis le titre de plus ancien cœlacanthe connu,. Elle est datée du Dévonien inférieur (Praguien supérieur), soit environ entre −407 et −409 Ma (millions d'années).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eoactinistia avec le préfixe grec « Êôs  » (aurore, aube) indique sa position originelle parmi les Actinistia. Le nom de l'espèce honore le paléontologue Peter Forey.
 </t>
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Seul le dentaire (os formant l'extrémité de la mâchoire inférieure) de cette espèce a été découvert dans l'État de Victoria dans le Sud-Est de l'Australie. Sa forme trapue, les dents fusionnées au dentaire et la présence de pores sur l'os en font, pour les auteurs, un Actinistia incontestable.
-L'étude par Min Zhu (2012) d'une nouvelle espèce d'Actinistia primitif découvert en Chine, Euporosteus yunnanensis, daté également du Praguien, semble confirmer qu'Eoactinistia est bien à ce jour l'actinistien le plus basal et qu'il montre déjà des caractères de cœlacanthe moderne[2]. 
+L'étude par Min Zhu (2012) d'une nouvelle espèce d'Actinistia primitif découvert en Chine, Euporosteus yunnanensis, daté également du Praguien, semble confirmer qu'Eoactinistia est bien à ce jour l'actinistien le plus basal et qu'il montre déjà des caractères de cœlacanthe moderne. 
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Classification phylogénique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Position taxinomique d'Eoactinistia dans le cladogramme des sarcopterygiens réalisé par Yu et. al en 2010[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Position taxinomique d'Eoactinistia dans le cladogramme des sarcopterygiens réalisé par Yu et. al en 2010 :
 </t>
         </is>
       </c>
